--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>6453.258075628053</v>
+        <v>1590.606758731594</v>
       </c>
       <c r="R2">
-        <v>6453.258075628053</v>
+        <v>14315.46082858434</v>
       </c>
       <c r="S2">
-        <v>0.007259649379254978</v>
+        <v>0.001224444114156257</v>
       </c>
       <c r="T2">
-        <v>0.007259649379254978</v>
+        <v>0.001366054848466141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>7227.436101217942</v>
+        <v>1702.178338424556</v>
       </c>
       <c r="R3">
-        <v>7227.436101217942</v>
+        <v>15319.60504582101</v>
       </c>
       <c r="S3">
-        <v>0.008130567752120376</v>
+        <v>0.001310331567678148</v>
       </c>
       <c r="T3">
-        <v>0.008130567752120376</v>
+        <v>0.001461875450606759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>3718.320444098781</v>
+        <v>854.7193524988163</v>
       </c>
       <c r="R4">
-        <v>3718.320444098781</v>
+        <v>7692.474172489347</v>
       </c>
       <c r="S4">
-        <v>0.004182957257795039</v>
+        <v>0.0006579602875931347</v>
       </c>
       <c r="T4">
-        <v>0.004182957257795039</v>
+        <v>0.000734055422026453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>4423.755729509949</v>
+        <v>976.52248024986</v>
       </c>
       <c r="R5">
-        <v>4423.755729509949</v>
+        <v>8788.702322248739</v>
       </c>
       <c r="S5">
-        <v>0.004976542881029443</v>
+        <v>0.0007517239548489677</v>
       </c>
       <c r="T5">
-        <v>0.004976542881029443</v>
+        <v>0.0008386631462859294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>8729.150297395947</v>
+        <v>1947.776523115901</v>
       </c>
       <c r="R6">
-        <v>8729.150297395947</v>
+        <v>11686.65913869541</v>
       </c>
       <c r="S6">
-        <v>0.009819934333208338</v>
+        <v>0.001499392283057343</v>
       </c>
       <c r="T6">
-        <v>0.009819934333208338</v>
+        <v>0.001115201080143275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>87419.66934664179</v>
+        <v>8391.461829734511</v>
       </c>
       <c r="R7">
-        <v>87419.66934664179</v>
+        <v>75523.15646761061</v>
       </c>
       <c r="S7">
-        <v>0.09834352521927593</v>
+        <v>0.006459721103397593</v>
       </c>
       <c r="T7">
-        <v>0.09834352521927593</v>
+        <v>0.00720680775138196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>97907.14500922288</v>
+        <v>8980.072840681853</v>
       </c>
       <c r="R8">
-        <v>97907.14500922288</v>
+        <v>80820.65556613669</v>
       </c>
       <c r="S8">
-        <v>0.1101415031230805</v>
+        <v>0.006912832020929949</v>
       </c>
       <c r="T8">
-        <v>0.1101415031230805</v>
+        <v>0.007712322342559965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>50370.57869661261</v>
+        <v>4509.187944950451</v>
       </c>
       <c r="R9">
-        <v>50370.57869661261</v>
+        <v>40582.69150455407</v>
       </c>
       <c r="S9">
-        <v>0.05666482512897011</v>
+        <v>0.00347115879428412</v>
       </c>
       <c r="T9">
-        <v>0.05666482512897011</v>
+        <v>0.003872609003470273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>59926.82434390859</v>
+        <v>5151.776876283941</v>
       </c>
       <c r="R10">
-        <v>59926.82434390859</v>
+        <v>46365.99188655546</v>
       </c>
       <c r="S10">
-        <v>0.0674152076440299</v>
+        <v>0.003965821746314252</v>
       </c>
       <c r="T10">
-        <v>0.0674152076440299</v>
+        <v>0.004424481249957386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>118250.2580452319</v>
+        <v>10275.7593961275</v>
       </c>
       <c r="R11">
-        <v>118250.2580452319</v>
+        <v>61654.55637676502</v>
       </c>
       <c r="S11">
-        <v>0.1330266668951188</v>
+        <v>0.007910247483864326</v>
       </c>
       <c r="T11">
-        <v>0.1330266668951188</v>
+        <v>0.005883394651210663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>92265.59811721554</v>
+        <v>158083.8298110248</v>
       </c>
       <c r="R12">
-        <v>92265.59811721554</v>
+        <v>1422754.468299223</v>
       </c>
       <c r="S12">
-        <v>0.103794995372635</v>
+        <v>0.1216924383684527</v>
       </c>
       <c r="T12">
-        <v>0.103794995372635</v>
+        <v>0.1357665437997094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>103334.4253271523</v>
+        <v>169172.4678537767</v>
       </c>
       <c r="R13">
-        <v>103334.4253271523</v>
+        <v>1522552.21068399</v>
       </c>
       <c r="S13">
-        <v>0.1162469698081805</v>
+        <v>0.1302284372952295</v>
       </c>
       <c r="T13">
-        <v>0.1162469698081805</v>
+        <v>0.1452897573017485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>53162.76766644816</v>
+        <v>84947.02283571303</v>
       </c>
       <c r="R14">
-        <v>53162.76766644816</v>
+        <v>764523.2055214171</v>
       </c>
       <c r="S14">
-        <v>0.0598059226465456</v>
+        <v>0.06539195282260057</v>
       </c>
       <c r="T14">
-        <v>0.0598059226465456</v>
+        <v>0.07295473363889514</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>63248.7440490238</v>
+        <v>97052.5321403517</v>
       </c>
       <c r="R15">
-        <v>63248.7440490238</v>
+        <v>873472.7892631652</v>
       </c>
       <c r="S15">
-        <v>0.0711522304071909</v>
+        <v>0.07471073607028944</v>
       </c>
       <c r="T15">
-        <v>0.0711522304071909</v>
+        <v>0.08335126288031537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>124805.2168076236</v>
+        <v>193581.4560700746</v>
       </c>
       <c r="R16">
-        <v>124805.2168076236</v>
+        <v>1161488.736420447</v>
       </c>
       <c r="S16">
-        <v>0.1404007253556288</v>
+        <v>0.1490184001756768</v>
       </c>
       <c r="T16">
-        <v>0.1404007253556288</v>
+        <v>0.1108352248540831</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>1621.832060070065</v>
+        <v>112676.6148178374</v>
       </c>
       <c r="R17">
-        <v>1621.832060070065</v>
+        <v>1014089.533360537</v>
       </c>
       <c r="S17">
-        <v>0.001824494227591787</v>
+        <v>0.08673810610912527</v>
       </c>
       <c r="T17">
-        <v>0.001824494227591787</v>
+        <v>0.09676963532042444</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>1816.398390346764</v>
+        <v>120580.2074818763</v>
       </c>
       <c r="R18">
-        <v>1816.398390346764</v>
+        <v>1085221.867336886</v>
       </c>
       <c r="S18">
-        <v>0.002043373330560204</v>
+        <v>0.09282226705276926</v>
       </c>
       <c r="T18">
-        <v>0.002043373330560204</v>
+        <v>0.1035574482224779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>934.4878563943773</v>
+        <v>60547.26143352935</v>
       </c>
       <c r="R19">
-        <v>934.4878563943773</v>
+        <v>544925.3529017642</v>
       </c>
       <c r="S19">
-        <v>0.00105126032572849</v>
+        <v>0.04660909271483572</v>
       </c>
       <c r="T19">
-        <v>0.00105126032572849</v>
+        <v>0.05199957788974589</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>1111.77776929983</v>
+        <v>69175.64430306807</v>
       </c>
       <c r="R20">
-        <v>1111.77776929983</v>
+        <v>622580.7987276127</v>
       </c>
       <c r="S20">
-        <v>0.00125070417116109</v>
+        <v>0.05325119489458394</v>
       </c>
       <c r="T20">
-        <v>0.00125070417116109</v>
+        <v>0.05940985965087384</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>137978.0790202158</v>
+      </c>
+      <c r="R21">
+        <v>827868.4741212945</v>
+      </c>
+      <c r="S21">
+        <v>0.1062150942157533</v>
+      </c>
+      <c r="T21">
+        <v>0.07899946474007406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>11441.53185809818</v>
+      </c>
+      <c r="R22">
+        <v>68649.19114858907</v>
+      </c>
+      <c r="S22">
+        <v>0.00880765548346551</v>
+      </c>
+      <c r="T22">
+        <v>0.006550858650987819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>12244.08709465039</v>
+      </c>
+      <c r="R23">
+        <v>73464.52256790231</v>
+      </c>
+      <c r="S23">
+        <v>0.009425459997552486</v>
+      </c>
+      <c r="T23">
+        <v>0.007010362324050832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>6148.156134547432</v>
+      </c>
+      <c r="R24">
+        <v>36888.93680728459</v>
+      </c>
+      <c r="S24">
+        <v>0.004732831386849785</v>
+      </c>
+      <c r="T24">
+        <v>0.003520131945716448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N21">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P21">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q21">
-        <v>2193.80902539049</v>
-      </c>
-      <c r="R21">
-        <v>2193.80902539049</v>
-      </c>
-      <c r="S21">
-        <v>0.002467944740894317</v>
-      </c>
-      <c r="T21">
-        <v>0.002467944740894317</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>7024.308809574971</v>
+      </c>
+      <c r="R25">
+        <v>42145.85285744982</v>
+      </c>
+      <c r="S25">
+        <v>0.005407290979172415</v>
+      </c>
+      <c r="T25">
+        <v>0.004021773893837921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>14010.7207638534</v>
+      </c>
+      <c r="R26">
+        <v>56042.88305541359</v>
+      </c>
+      <c r="S26">
+        <v>0.01078540907751922</v>
+      </c>
+      <c r="T26">
+        <v>0.005347899940950728</v>
       </c>
     </row>
   </sheetData>
